--- a/data/long_razon/P23_8-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_8-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-65,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>105,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-37,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-86,2; -23,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 410,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,08; 99,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-48,91; 88,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-62,63; -0,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 147,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-23,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,27; 57,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 286,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,67; 75,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 98,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,7; 30,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 143,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-38,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-28,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-63,52; 8,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 78,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 17,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 139,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,34; -0,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 69,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>49,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 37,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 61,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 120,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 52,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 56,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 40,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-16,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-49,31; 52,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 85,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 74,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 116,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 31,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 72,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-44,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-38,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,86; 1,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 132,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,92; 11,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 82,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,53; -9,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 81,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-33,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-20,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-47,55; -13,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 68,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 14,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 45,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -5,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,12; 44,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P23_8-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_8-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.6772578195071584</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.9039754790382387</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.4810294334265628</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3075934456095558</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.115472621554622</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.02048997336408857</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.4152322736982689</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.09065407680416487</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.3755409826652732</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.3565565557086203</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.07386352462592939</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.1949212615491503</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.8750873858256967</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.2870892506798512</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.8145812411976049</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.5396085065829962</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4220010347202879</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.4870878261838101</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2324128764209663</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.5149857094017739</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.628655233635375</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1386008710680641</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.4362670500691858</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.3478834953001661</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.2267785424209092</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.802793922738241</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.3531053702815296</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.948897234969876</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.223724730450934</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.8601023388404939</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.577467826459122</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.783737647145522</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.02215696086254353</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.272187443064093</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.5701817839917502</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.388418391252701</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.2341983697482207</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3136773064635981</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.15542219420451</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1834770082181419</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1687465849327738</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.003804185760744188</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3677573626103892</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.6619860297819061</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.2080333691514334</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.1866396228679399</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.7839091058249461</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.1802905486652944</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.7359913292266071</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4437016525239139</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.05399225344833835</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7718096455439141</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.5785922475430239</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.4181511468542246</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2736309366286367</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1118629556191182</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.5873194643849328</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.3262525824577095</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.06818315486277048</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3554776573947099</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.5267991144861823</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.575527757403064</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.447498884448349</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.575399740397156</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.6797823902804822</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.179840767108488</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.726271642793058</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>2.496040516994009</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.2561060971415814</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.344818114267236</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>2.219857393065118</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.2340360767045</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.3776160549886676</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.04877030883630706</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3225447043459232</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4114211779479205</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1934801289739655</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.5106310767922663</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.07169270050918589</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.02608404423447856</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.29155346086279</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.2033000611180016</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.1145168594677403</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.2294527230820706</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6266504986515664</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.480584136887349</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1787489080511364</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2345858429168575</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.4728504075816391</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.01437036498498961</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.412708080052162</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.4151070714327812</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.4917705580718965</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2247386225990517</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.177477163032908</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2034816648815289</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.09165480513105823</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.6280065168235121</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.19176464339645</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.463050467944432</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.1843329148971311</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.340144568429137</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.4309307330376725</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.7852418678546759</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.008003549779991747</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.6607488580668972</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.5697861055713486</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.8032377380905533</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.09595141801532356</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.07333895091518107</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.419823692988223</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.4329386335544738</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.5447147215417614</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.1026678774488319</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.2294954061459654</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.4579792237364138</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.1804708834382309</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.0892863097486874</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.3236098026741362</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.4425180235726013</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.4283767940892913</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3502341527463831</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.115049400175948</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.660727074740082</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.02177080957183015</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1908366707931617</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1725288998038002</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.7370527721053205</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1499885328444019</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1960914057479695</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.01783145737679407</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.6312000929990575</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.3418120975004903</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5954358335313819</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.433644835877742</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.08587700899775866</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.321271337114458</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5459558615385561</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.7726993788280826</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.06125651451707101</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.5453102244782334</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4172698826492184</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.8962484285010495</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-0.1840461770397866</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.1446265895346497</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.19553488332321</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.2060771960226792</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.06612555189426919</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.08013131155539498</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.3850707749986466</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.1141709113565357</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.5077316674584798</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.04816145382670108</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.2887902363402606</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.05899570383715443</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.231694076604675</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.5013512970733307</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.2424048353900517</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.5427161461708208</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.5057804587878337</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.3134668335932843</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.1063639807093595</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.3372161186495836</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.04320524060541911</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3213408796078567</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.07744225111420368</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.3587975217209729</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.1715216389634094</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.5042126691753279</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.8956218803139391</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.3850099431906794</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.7378024472737258</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.7440213572353331</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1.166856159711626</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.9116625644325586</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.462593499909647</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.4313369364326625</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.747069909870083</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.3718004493868629</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.7477430718771836</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.4304942292221902</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.3485495611467174</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.491310593533433</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.733539781904478</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.3511998082845338</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.1868372123082667</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.5429989687681968</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.12974589657498</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.3850458046638769</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.2647731718192703</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.8247424666232471</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.3289698388946486</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.7061172778686288</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.2202552412013377</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.02417845044666936</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.2595271042225015</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.6329663072057943</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.3231453774069714</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.1897723560958786</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.5375820462955441</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.5839702723007609</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.09906990727828283</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>0.09801839759261395</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.2525978390863642</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.08237704980228104</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.279857528406956</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>5.05871559233976</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2.972454378299576</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.05299918742725917</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.136521709642094</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.712476579259895</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.830974265433809</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>-0.05762721612492593</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.8548660533345158</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>1.773983816727808</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.615586275886514</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.3246295105905814</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2350768666475224</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3001381344279352</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.02025203510521277</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.03707724281163055</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.1996981601938785</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.2620384495898403</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.1125893505100051</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.1936114290275114</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.2172987860159078</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.2803291084497018</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.06536068479522758</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.46216128371629</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.03344252086570997</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.02998641843253424</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.2176987807534353</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.2198995855373205</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.004888746892553882</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.01584995675414023</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.1718016287244226</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.3091787145270359</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.03100689731661431</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.07353635014229339</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.1251680407021898</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.1083730920879632</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.6075057976584488</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.6905213232219398</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3928996094936397</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1555177772987745</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.4549030373712242</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.5504786570639743</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.4561232435613701</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>-0.04430450044258804</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.4158205820542865</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.5367558047761301</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.2916396027333787</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
